--- a/Data/EC/NIT-8600386717.xlsx
+++ b/Data/EC/NIT-8600386717.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB2ECCB-2CC2-4F1A-8106-B99A2361B947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D1B782A-0E00-46BC-94AB-48C0989AF59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E97D165F-CB65-457C-BD85-35070CE7B450}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5A5A9620-CC57-4899-A14C-F510C64126B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,31 +65,37 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1052969662</t>
-  </si>
-  <si>
-    <t>NEDIS TIRADO CARPIO</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
+    <t>1068587640</t>
+  </si>
+  <si>
+    <t>LEANIS VILLALBA VASQUEZ</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -503,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DAB3A1-1FDC-8ADD-2FE5-DF8A6F5DCB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC458F3-1ECA-2112-DA3E-699EE5AB0038}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,8 +860,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7F6444-FE21-415D-B973-0ABC4513F628}">
-  <dimension ref="B2:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4559CE5-A0E1-4BFF-9936-F4F4833A9087}">
+  <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -866,7 +872,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -879,7 +885,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -924,7 +930,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -956,12 +962,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>245784</v>
+        <v>510840</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -972,17 +978,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1009,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1032,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>56760</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>1419000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1055,10 +1061,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>56760</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>1419000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1078,10 +1084,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>35112</v>
+        <v>56760</v>
       </c>
       <c r="G18" s="18">
-        <v>877803</v>
+        <v>1419000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1101,10 +1107,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>35112</v>
+        <v>56760</v>
       </c>
       <c r="G19" s="18">
-        <v>877803</v>
+        <v>1419000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1124,10 +1130,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>35112</v>
+        <v>56760</v>
       </c>
       <c r="G20" s="18">
-        <v>877803</v>
+        <v>1419000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1147,66 +1153,112 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>35112</v>
+        <v>56760</v>
       </c>
       <c r="G21" s="18">
-        <v>877803</v>
+        <v>1419000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="24">
-        <v>35112</v>
-      </c>
-      <c r="G22" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="H27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="H28" s="1" t="s">
+      <c r="F22" s="18">
+        <v>56760</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1419000</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="18">
+        <v>56760</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1419000</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="24">
+        <v>56760</v>
+      </c>
+      <c r="G24" s="24">
+        <v>1419000</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="H29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="C30" s="32"/>
+      <c r="H30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H29:J29"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
